--- a/webcrawler/4_servents.xlsx
+++ b/webcrawler/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4771,7 +4771,11 @@
           <t>洛庫斯塔</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>洛庫斯塔</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4795,7 +4799,11 @@
           <t>瑟坦特</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>瑟坦特</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4819,7 +4827,11 @@
           <t>難敵</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>難敵</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4843,7 +4855,11 @@
           <t>鈴鹿御前〔暑假〕</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>鈴鹿御前〔暑假〕</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4867,7 +4883,11 @@
           <t>克洛伊·馮·愛因茲貝倫</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>克洛伊．馮．愛因茲貝倫</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4891,7 +4911,11 @@
           <t>諾克娜蕾·雅蘭杜</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>諾克娜蕾雅．雅蘭杜</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4915,7 +4939,11 @@
           <t>ＵＤＫ－巴格斯特</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>ＵＤＫ－巴格斯特</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4939,7 +4967,11 @@
           <t>凱特·庫·米可科爾</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>凱特．庫．米可科爾</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5030,7 +5062,11 @@
           <t>由井正雪</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>由井正雪</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
@@ -5050,7 +5086,11 @@
           <t>宮本伊織</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>宮本伊織</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -5070,7 +5110,11 @@
           <t>耀星のハサン</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>耀星哈桑</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -5090,7 +5134,11 @@
           <t>アレッサンドロ・ディ・カリオストロ</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>亞歷山德羅·迪·卡利奧斯特羅</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -5110,7 +5158,11 @@
           <t>静希草十郎</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>靜希草十郎</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -5272,6 +5324,46 @@
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>434</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>黒姫</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>439</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>アショカ王</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/webcrawler/4_servents.xlsx
+++ b/webcrawler/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4995,7 +4995,11 @@
           <t>永倉新八</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>永倉新八</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5019,7 +5023,11 @@
           <t>雜賀孫一</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>雜賀孫一</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5043,7 +5051,11 @@
           <t>尼莫〔聖誕〕</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>尼莫〔Santa〕</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5182,7 +5194,11 @@
           <t>ドブルイニャ・ニキチッチ</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>多佈雷尼亞·尼基季奇</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -5202,7 +5218,11 @@
           <t>徐福</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>方巿</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -5222,7 +5242,11 @@
           <t>テノチティトラン</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>特諾奇蒂特蘭</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -5242,7 +5266,11 @@
           <t>謎のヒロインXX〔オルタ〕</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>謎之女主角XX〔Alter〕</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -5262,7 +5290,11 @@
           <t>岸波白野</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>岸波白野</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
@@ -5282,7 +5314,11 @@
           <t>岸波白野</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>岸波白野</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
@@ -5364,6 +5400,126 @@
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>446</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>クリームヒルト</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>447</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>呼延灼</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>449</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>美遊・エーデルフェルト</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>451</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Alterego</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>ジュネス・クレーン</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>454</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>藤堂平助</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>455</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>原田左之助</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
